--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyz\Downloads\yyyy-MM-dd-init-data.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thirdFloor\liuneng\version_2\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="748">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -1698,12 +1698,6 @@
     <t>hdispatch.svn.import_excel.import</t>
   </si>
   <si>
-    <t>hdispatch.themeGroup.theme_group_name</t>
-  </si>
-  <si>
-    <t>hdispatch.themeGroup.theme_group_desc</t>
-  </si>
-  <si>
     <t>hdispatch.themeGroup.theme_group_create.mount_theme</t>
   </si>
   <si>
@@ -1878,12 +1872,6 @@
     <t>选择层次</t>
   </si>
   <si>
-    <t>select svn file</t>
-  </si>
-  <si>
-    <t>选择SVN文件</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -1986,12 +1974,6 @@
     <t>创建成功</t>
   </si>
   <si>
-    <t>SVN files selected</t>
-  </si>
-  <si>
-    <t>选中的SVN文件如下</t>
-  </si>
-  <si>
     <t>选择</t>
   </si>
   <si>
@@ -2178,389 +2160,531 @@
     <t>导入</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Authority Management</t>
+  </si>
+  <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>Make sure no Jobs and workflows under this layer,continue anyway?</t>
+  </si>
+  <si>
+    <t>请确保此层次下没有挂载任务、任务流，是否仍要继续？</t>
+  </si>
+  <si>
+    <t>Meeting error when deleting</t>
+  </si>
+  <si>
+    <t>删除出错</t>
+  </si>
+  <si>
+    <t>please delete layers under these themes</t>
+  </si>
+  <si>
+    <t>请先删除这些主题下的层次</t>
+  </si>
+  <si>
+    <t>CornExpression</t>
+  </si>
+  <si>
+    <t>调度表达式</t>
+  </si>
+  <si>
+    <t>*自动生成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch_themegroup</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_group_desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理主题和层次页面权限（本主题组的名称约定不变）</t>
+  </si>
+  <si>
+    <t>管理任务运行时参数的权限（本主题组的名称约定不变）</t>
+  </si>
+  <si>
+    <t>*ROLE_ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_runtime_parameters_management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*job_runtime_parameters_management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_layer_management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*theme_layer_management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch_authority</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_read</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_operate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*theme_group_id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*authority_id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*parameter_hdispatch_admin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*parameter_hdispatch_test</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*themeLayer_hdispatch_admin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*themeLayer_hdispatch_test</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#USER_NAME</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#唯一性检查</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#theme_group_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#theme_group_id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#user_id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select theme</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择任务组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email Action</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否邮件提醒</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sla Rule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow/Job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>流/作业</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA Alert Emails</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置提醒邮件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>job name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>find nothing relactive</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到任何数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>共</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>条数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>first page</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Nme</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPPING名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPPING Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param Value</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Active Date</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Active Date</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Flag</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效标志</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Already Exist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经存在</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure job and workflow under these layers already deleted</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先删除这些层次下的任务和任务流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.flowlist.flowname</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>server files selected</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的服务器文件如下</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server File</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器文件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select server file</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择服务器文件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap.tip.success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap.tip.success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUNT</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.mount_theme</t>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.mount_theme</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题挂载</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount Theme</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.operation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.operation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_create.mount_theme</t>
+  </si>
+  <si>
+    <t>MOUNT</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.authority_management</t>
+  </si>
+  <si>
+    <t>hdispatch.grid_title.authority_management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限分配</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_create.authority_manage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_create.authority_manage</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUNT</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>Theme Group</t>
-  </si>
-  <si>
-    <t>主题组</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>Mount Theme</t>
-  </si>
-  <si>
-    <t>主题挂载</t>
-  </si>
-  <si>
-    <t>Authority Management</t>
-  </si>
-  <si>
-    <t>权限分配</t>
-  </si>
-  <si>
-    <t>Make sure no Jobs and workflows under this layer,continue anyway?</t>
-  </si>
-  <si>
-    <t>请确保此层次下没有挂载任务、任务流，是否仍要继续？</t>
-  </si>
-  <si>
-    <t>Meeting error when deleting</t>
-  </si>
-  <si>
-    <t>删除出错</t>
-  </si>
-  <si>
-    <t>please delete layers under these themes</t>
-  </si>
-  <si>
-    <t>请先删除这些主题下的层次</t>
-  </si>
-  <si>
-    <t>CornExpression</t>
-  </si>
-  <si>
-    <t>调度表达式</t>
-  </si>
-  <si>
-    <t>*自动生成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch_themegroup</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme_group_desc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理主题和层次页面权限（本主题组的名称约定不变）</t>
-  </si>
-  <si>
-    <t>管理任务运行时参数的权限（本主题组的名称约定不变）</t>
-  </si>
-  <si>
-    <t>*ROLE_ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_runtime_parameters_management</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*job_runtime_parameters_management</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme_layer_management</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*theme_layer_management</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch_authority</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth_read</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth_operate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*theme_group_id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*authority_id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*parameter_hdispatch_admin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*parameter_hdispatch_test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*themeLayer_hdispatch_admin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*themeLayer_hdispatch_test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>#USER_NAME</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>#唯一性检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>#theme_group_name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>#theme_group_id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>#user_id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select theme</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择任务组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email Action</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否邮件提醒</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLA规则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sla Rule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow/Job</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>流/作业</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLA Alert Emails</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置提醒邮件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exec Id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>job name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kettle File</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kettle文件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>find nothing relactive</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>未找到任何数据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>共</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>records</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>条数据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>页</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>first page</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一页</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>层次管理</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>layer management</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Nme</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAPPING名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAPPING Name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param Name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param Value</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start Active Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>End Active Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable Flag</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效标志</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Already Exist</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经存在</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make sure job and workflow under these layers already deleted</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先删除这些层次下的任务和任务流</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.flowlist.flowname</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.theme_group.theme_group_desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题组名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题组描述</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3756,7 +3880,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>50</v>
@@ -3988,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>68</v>
@@ -4260,10 +4384,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="F3" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -4277,16 +4401,16 @@
         <v>242</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>658</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4297,13 +4421,13 @@
         <v>242</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F8" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G8" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4314,13 +4438,13 @@
         <v>242</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F9" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4331,22 +4455,22 @@
         <v>242</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E14" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>648</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>659</v>
-      </c>
       <c r="G14" s="54" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4357,7 +4481,7 @@
         <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>$E$8</f>
@@ -4368,10 +4492,10 @@
         <v>hdispatch_admin</v>
       </c>
       <c r="H15" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I15" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4382,7 +4506,7 @@
         <v>242</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>$E$8</f>
@@ -4393,10 +4517,10 @@
         <v>hdispatch_test</v>
       </c>
       <c r="H16" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I16" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4407,7 +4531,7 @@
         <v>242</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>$E$9</f>
@@ -4418,10 +4542,10 @@
         <v>hdispatch_admin</v>
       </c>
       <c r="H17" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I17" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4432,7 +4556,7 @@
         <v>242</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>$E$9</f>
@@ -4443,10 +4567,10 @@
         <v>hdispatch_test</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I18" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7191,10 +7315,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B226" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+    <sheetView tabSelected="1" topLeftCell="B209" workbookViewId="0">
+      <selection activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7297,13 +7421,13 @@
         <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7317,7 +7441,7 @@
         <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7331,7 +7455,7 @@
         <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7345,7 +7469,7 @@
         <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7359,7 +7483,7 @@
         <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7373,7 +7497,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7387,7 +7511,7 @@
         <v>147</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="5:8">
@@ -7401,7 +7525,7 @@
         <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -7415,7 +7539,7 @@
         <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -7429,7 +7553,7 @@
         <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="5:8">
@@ -7443,7 +7567,7 @@
         <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="5:8">
@@ -7457,7 +7581,7 @@
         <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="5:8">
@@ -7471,7 +7595,7 @@
         <v>147</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="5:8">
@@ -7485,7 +7609,7 @@
         <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -7499,7 +7623,7 @@
         <v>147</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="5:8">
@@ -7513,7 +7637,7 @@
         <v>145</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="5:8">
@@ -7527,7 +7651,7 @@
         <v>147</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="5:8">
@@ -7541,7 +7665,7 @@
         <v>145</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="5:8">
@@ -7555,7 +7679,7 @@
         <v>147</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="5:8">
@@ -7569,7 +7693,7 @@
         <v>145</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="5:8">
@@ -7583,7 +7707,7 @@
         <v>147</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="5:8">
@@ -7597,7 +7721,7 @@
         <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="5:8">
@@ -7611,7 +7735,7 @@
         <v>147</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="5:8">
@@ -7625,7 +7749,7 @@
         <v>145</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="5:8">
@@ -7639,7 +7763,7 @@
         <v>147</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="5:8">
@@ -7653,7 +7777,7 @@
         <v>145</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="5:8">
@@ -7667,7 +7791,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -7681,7 +7805,7 @@
         <v>145</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="5:8">
@@ -7695,7 +7819,7 @@
         <v>147</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -7709,7 +7833,7 @@
         <v>145</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="5:8">
@@ -7723,7 +7847,7 @@
         <v>147</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="5:8">
@@ -7737,7 +7861,7 @@
         <v>145</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="5:8">
@@ -7751,7 +7875,7 @@
         <v>147</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="5:8">
@@ -7765,7 +7889,7 @@
         <v>145</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -7779,7 +7903,7 @@
         <v>147</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -7793,7 +7917,7 @@
         <v>145</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="5:8">
@@ -7807,7 +7931,7 @@
         <v>147</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="5:8">
@@ -7821,7 +7945,7 @@
         <v>145</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="5:8">
@@ -7835,7 +7959,7 @@
         <v>147</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="5:8">
@@ -7849,7 +7973,7 @@
         <v>145</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="5:8">
@@ -7863,7 +7987,7 @@
         <v>147</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="5:8">
@@ -7877,7 +8001,7 @@
         <v>145</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="5:8">
@@ -7891,7 +8015,7 @@
         <v>147</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="5:8">
@@ -7905,7 +8029,7 @@
         <v>145</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="5:8">
@@ -7919,7 +8043,7 @@
         <v>147</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="5:8">
@@ -7933,7 +8057,7 @@
         <v>145</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="5:8">
@@ -7947,7 +8071,7 @@
         <v>147</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="5:8">
@@ -7961,7 +8085,7 @@
         <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="5:8">
@@ -7975,7 +8099,7 @@
         <v>147</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="5:8">
@@ -7989,7 +8113,7 @@
         <v>145</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="5:8">
@@ -8003,7 +8127,7 @@
         <v>147</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="5:8">
@@ -8017,7 +8141,7 @@
         <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="5:8">
@@ -8031,7 +8155,7 @@
         <v>147</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="5:8">
@@ -8045,7 +8169,7 @@
         <v>145</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="5:8">
@@ -8059,7 +8183,7 @@
         <v>147</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="5:8">
@@ -8073,7 +8197,7 @@
         <v>145</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="5:8">
@@ -8087,7 +8211,7 @@
         <v>147</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="5:8">
@@ -8101,7 +8225,7 @@
         <v>145</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="5:8">
@@ -8115,7 +8239,7 @@
         <v>147</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="5:8">
@@ -8129,7 +8253,7 @@
         <v>145</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="5:8">
@@ -8143,7 +8267,7 @@
         <v>147</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="5:8">
@@ -8157,7 +8281,7 @@
         <v>145</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="5:8">
@@ -8171,7 +8295,7 @@
         <v>147</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="5:8">
@@ -8185,7 +8309,7 @@
         <v>145</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="5:8">
@@ -8199,7 +8323,7 @@
         <v>147</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="5:8">
@@ -8213,7 +8337,7 @@
         <v>145</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="5:8">
@@ -8227,7 +8351,7 @@
         <v>147</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="5:8">
@@ -8241,7 +8365,7 @@
         <v>145</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="5:8">
@@ -8255,7 +8379,7 @@
         <v>147</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="5:8">
@@ -8269,7 +8393,7 @@
         <v>145</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="5:8">
@@ -8283,7 +8407,7 @@
         <v>147</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="5:8">
@@ -8297,7 +8421,7 @@
         <v>145</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="5:8">
@@ -8311,7 +8435,7 @@
         <v>147</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="5:8">
@@ -8325,7 +8449,7 @@
         <v>145</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="5:8">
@@ -8339,7 +8463,7 @@
         <v>147</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>518</v>
+        <v>710</v>
       </c>
     </row>
     <row r="85" spans="5:8">
@@ -8353,7 +8477,7 @@
         <v>145</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>519</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="5:8">
@@ -8367,7 +8491,7 @@
         <v>147</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="5:8">
@@ -8381,7 +8505,7 @@
         <v>145</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="5:8">
@@ -8395,7 +8519,7 @@
         <v>147</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="5:8">
@@ -8409,7 +8533,7 @@
         <v>145</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="5:8">
@@ -8423,7 +8547,7 @@
         <v>147</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="5:8">
@@ -8437,7 +8561,7 @@
         <v>145</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="5:8">
@@ -8451,7 +8575,7 @@
         <v>147</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="5:8">
@@ -8465,7 +8589,7 @@
         <v>145</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="5:8">
@@ -8479,7 +8603,7 @@
         <v>147</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="5:8">
@@ -8493,7 +8617,7 @@
         <v>145</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="5:8">
@@ -8507,7 +8631,7 @@
         <v>147</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
     </row>
     <row r="97" spans="5:8">
@@ -8521,7 +8645,7 @@
         <v>145</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="98" spans="5:8">
@@ -8535,7 +8659,7 @@
         <v>147</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="5:8">
@@ -8549,7 +8673,7 @@
         <v>145</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="5:8">
@@ -8563,7 +8687,7 @@
         <v>147</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="5:8">
@@ -8577,7 +8701,7 @@
         <v>145</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="5:8">
@@ -8591,7 +8715,7 @@
         <v>147</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="5:8">
@@ -8605,7 +8729,7 @@
         <v>145</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104" spans="5:8">
@@ -8619,7 +8743,7 @@
         <v>147</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="5:8">
@@ -8633,7 +8757,7 @@
         <v>145</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="5:8">
@@ -8647,7 +8771,7 @@
         <v>147</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="5:8">
@@ -8661,7 +8785,7 @@
         <v>145</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="5:8">
@@ -8675,7 +8799,7 @@
         <v>147</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="5:8">
@@ -8689,7 +8813,7 @@
         <v>145</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="5:8">
@@ -8703,7 +8827,7 @@
         <v>147</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="5:8">
@@ -8717,7 +8841,7 @@
         <v>145</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="5:8">
@@ -8731,7 +8855,7 @@
         <v>147</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="5:8">
@@ -8745,7 +8869,7 @@
         <v>145</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="5:8">
@@ -8759,7 +8883,7 @@
         <v>147</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="5:8">
@@ -8773,7 +8897,7 @@
         <v>145</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -8787,7 +8911,7 @@
         <v>147</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="5:8">
@@ -8801,7 +8925,7 @@
         <v>145</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="5:8">
@@ -8815,7 +8939,7 @@
         <v>147</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="5:8">
@@ -8829,7 +8953,7 @@
         <v>145</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="5:8">
@@ -8843,7 +8967,7 @@
         <v>147</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="5:8">
@@ -8857,7 +8981,7 @@
         <v>145</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="5:8">
@@ -8871,7 +8995,7 @@
         <v>147</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="5:8">
@@ -8885,7 +9009,7 @@
         <v>145</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="5:8">
@@ -8899,7 +9023,7 @@
         <v>147</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125" spans="5:8">
@@ -8913,7 +9037,7 @@
         <v>145</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="5:8">
@@ -8927,7 +9051,7 @@
         <v>147</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="5:8">
@@ -8941,7 +9065,7 @@
         <v>145</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="5:8">
@@ -8955,7 +9079,7 @@
         <v>147</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="5:8">
@@ -8969,7 +9093,7 @@
         <v>145</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="5:8">
@@ -8983,7 +9107,7 @@
         <v>147</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="5:8">
@@ -8997,7 +9121,7 @@
         <v>145</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="5:8">
@@ -9011,7 +9135,7 @@
         <v>147</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="5:8">
@@ -9025,7 +9149,7 @@
         <v>145</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="5:8">
@@ -9039,7 +9163,7 @@
         <v>147</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="5:8">
@@ -9053,7 +9177,7 @@
         <v>145</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="5:8">
@@ -9067,7 +9191,7 @@
         <v>147</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>554</v>
+        <v>706</v>
       </c>
     </row>
     <row r="137" spans="5:8">
@@ -9081,7 +9205,7 @@
         <v>145</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>555</v>
+        <v>707</v>
       </c>
     </row>
     <row r="138" spans="5:8">
@@ -9095,7 +9219,7 @@
         <v>147</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="5:8">
@@ -9109,7 +9233,7 @@
         <v>145</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="5:8">
@@ -9123,7 +9247,7 @@
         <v>147</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="141" spans="5:8">
@@ -9137,7 +9261,7 @@
         <v>145</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="5:8">
@@ -9151,7 +9275,7 @@
         <v>147</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="5:8">
@@ -9165,7 +9289,7 @@
         <v>145</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="144" spans="5:8">
@@ -9179,7 +9303,7 @@
         <v>147</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="5:8">
@@ -9193,7 +9317,7 @@
         <v>145</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="5:8">
@@ -9207,7 +9331,7 @@
         <v>147</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="147" spans="5:8">
@@ -9221,7 +9345,7 @@
         <v>145</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="148" spans="5:8">
@@ -9235,7 +9359,7 @@
         <v>147</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="149" spans="5:8">
@@ -9249,7 +9373,7 @@
         <v>145</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="5:8">
@@ -9263,7 +9387,7 @@
         <v>147</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" spans="5:8">
@@ -9277,7 +9401,7 @@
         <v>145</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" spans="5:8">
@@ -9291,7 +9415,7 @@
         <v>147</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="5:8">
@@ -9305,7 +9429,7 @@
         <v>145</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="5:8">
@@ -9319,7 +9443,7 @@
         <v>147</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="5:8">
@@ -9333,7 +9457,7 @@
         <v>145</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="5:8">
@@ -9347,7 +9471,7 @@
         <v>147</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="5:8">
@@ -9361,7 +9485,7 @@
         <v>145</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="5:8">
@@ -9375,7 +9499,7 @@
         <v>147</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="5:8">
@@ -9389,7 +9513,7 @@
         <v>145</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="5:8">
@@ -9403,7 +9527,7 @@
         <v>147</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="5:8">
@@ -9417,7 +9541,7 @@
         <v>145</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="5:8">
@@ -9431,7 +9555,7 @@
         <v>147</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="5:8">
@@ -9445,7 +9569,7 @@
         <v>145</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="5:8">
@@ -9459,7 +9583,7 @@
         <v>147</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="5:8">
@@ -9473,7 +9597,7 @@
         <v>145</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" spans="5:8">
@@ -9487,7 +9611,7 @@
         <v>147</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="5:8">
@@ -9501,7 +9625,7 @@
         <v>145</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="168" spans="5:8">
@@ -9515,7 +9639,7 @@
         <v>147</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="5:8">
@@ -9529,7 +9653,7 @@
         <v>145</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="170" spans="5:8">
@@ -9543,7 +9667,7 @@
         <v>147</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="171" spans="5:8">
@@ -9557,7 +9681,7 @@
         <v>145</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="5:8">
@@ -9571,7 +9695,7 @@
         <v>147</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="5:8">
@@ -9585,7 +9709,7 @@
         <v>145</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -9599,7 +9723,7 @@
         <v>147</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="5:8">
@@ -9613,7 +9737,7 @@
         <v>145</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="176" spans="5:8">
@@ -9627,7 +9751,7 @@
         <v>147</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -9641,7 +9765,7 @@
         <v>145</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="178" spans="5:8">
@@ -9655,7 +9779,7 @@
         <v>147</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -9669,7 +9793,7 @@
         <v>145</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -9683,7 +9807,7 @@
         <v>147</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="5:8">
@@ -9697,7 +9821,7 @@
         <v>145</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="182" spans="5:8">
@@ -9711,7 +9835,7 @@
         <v>147</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="5:8">
@@ -9725,7 +9849,7 @@
         <v>145</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="184" spans="5:8">
@@ -9739,7 +9863,7 @@
         <v>147</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="185" spans="5:8">
@@ -9753,7 +9877,7 @@
         <v>145</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="5:8">
@@ -9767,7 +9891,7 @@
         <v>147</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="5:8">
@@ -9781,7 +9905,7 @@
         <v>145</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -9795,7 +9919,7 @@
         <v>147</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="5:8">
@@ -9809,7 +9933,7 @@
         <v>145</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -9823,7 +9947,7 @@
         <v>147</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -9837,7 +9961,7 @@
         <v>145</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="5:8">
@@ -9851,7 +9975,7 @@
         <v>147</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -9865,7 +9989,7 @@
         <v>145</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -9879,7 +10003,7 @@
         <v>147</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="5:8">
@@ -9893,7 +10017,7 @@
         <v>145</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="5:8">
@@ -9907,7 +10031,7 @@
         <v>147</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" spans="5:8">
@@ -9921,7 +10045,7 @@
         <v>145</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" spans="5:8">
@@ -9935,7 +10059,7 @@
         <v>147</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -9949,7 +10073,7 @@
         <v>145</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -9963,7 +10087,7 @@
         <v>147</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -9977,7 +10101,7 @@
         <v>145</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -9991,7 +10115,7 @@
         <v>147</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -10005,7 +10129,7 @@
         <v>145</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -10019,7 +10143,7 @@
         <v>147</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -10033,7 +10157,7 @@
         <v>145</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -10047,7 +10171,7 @@
         <v>147</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -10061,7 +10185,7 @@
         <v>145</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -10075,7 +10199,7 @@
         <v>147</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -10089,7 +10213,7 @@
         <v>145</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -10103,7 +10227,7 @@
         <v>147</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -10117,7 +10241,7 @@
         <v>145</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -10131,7 +10255,7 @@
         <v>147</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -10145,7 +10269,7 @@
         <v>145</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -10159,7 +10283,7 @@
         <v>147</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -10173,7 +10297,7 @@
         <v>145</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -10187,7 +10311,7 @@
         <v>147</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -10201,7 +10325,7 @@
         <v>145</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -10215,7 +10339,7 @@
         <v>147</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -10229,7 +10353,7 @@
         <v>145</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -10237,13 +10361,13 @@
         <v>80</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>458</v>
+        <v>742</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>618</v>
+        <v>743</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -10251,13 +10375,13 @@
         <v>80</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>458</v>
+        <v>741</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>619</v>
+        <v>746</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -10265,13 +10389,13 @@
         <v>80</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>459</v>
+        <v>745</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -10279,13 +10403,13 @@
         <v>80</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>459</v>
+        <v>744</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>621</v>
+        <v>747</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -10293,13 +10417,13 @@
         <v>80</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>622</v>
+        <v>720</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -10307,13 +10431,13 @@
         <v>80</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>623</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -10321,13 +10445,13 @@
         <v>80</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -10335,13 +10459,13 @@
         <v>80</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="228" spans="5:8">
@@ -10349,13 +10473,13 @@
         <v>80</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="229" spans="5:8">
@@ -10363,13 +10487,13 @@
         <v>80</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="5:8">
@@ -10377,13 +10501,13 @@
         <v>80</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231" spans="5:8">
@@ -10391,13 +10515,13 @@
         <v>80</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="232" spans="5:8">
@@ -10405,13 +10529,13 @@
         <v>80</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="233" spans="5:8">
@@ -10419,13 +10543,13 @@
         <v>80</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="234" spans="5:8">
@@ -10433,13 +10557,13 @@
         <v>80</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -10447,13 +10571,13 @@
         <v>80</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="236" spans="5:8">
@@ -10461,13 +10585,13 @@
         <v>80</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="5:8">
@@ -10475,13 +10599,13 @@
         <v>80</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="5:8">
@@ -10489,13 +10613,13 @@
         <v>80</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>147</v>
+        <v>714</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="5:8">
@@ -10503,25 +10627,187 @@
         <v>80</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>145</v>
+        <v>716</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="5:8">
-      <c r="E240" s="12"/>
-    </row>
-    <row r="241" spans="5:5">
-      <c r="E241" s="12"/>
+      <c r="E240" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8">
+      <c r="E241" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8">
+      <c r="E242" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8">
+      <c r="E243" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8">
+      <c r="E244" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8">
+      <c r="E245" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8">
+      <c r="E246" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8">
+      <c r="E247" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8">
+      <c r="E248" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8">
+      <c r="E249" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8">
+      <c r="E250" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8">
+      <c r="E251" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>739</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="758">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -2685,6 +2685,46 @@
   </si>
   <si>
     <t>主题组描述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.tip.create_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.tip.update_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.tip.delete_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE SUCCESS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.tip.update_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE SUCCESS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE SUCCESS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7315,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B209" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView tabSelected="1" topLeftCell="B242" workbookViewId="0">
+      <selection activeCell="F261" sqref="F261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10802,6 +10842,90 @@
       </c>
       <c r="H251" s="2" t="s">
         <v>739</v>
+      </c>
+    </row>
+    <row r="252" spans="5:8">
+      <c r="E252" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8">
+      <c r="E253" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="5:8">
+      <c r="E254" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="255" spans="5:8">
+      <c r="E255" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="256" spans="5:8">
+      <c r="E256" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8">
+      <c r="E257" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425" tabRatio="566" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425" tabRatio="566" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="788">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -1296,12 +1296,6 @@
     <t>SCHEDULE</t>
   </si>
   <si>
-    <t>任务流调度</t>
-  </si>
-  <si>
-    <t>任务调度</t>
-  </si>
-  <si>
     <t>fa fa-cogs</t>
   </si>
   <si>
@@ -1344,12 +1338,6 @@
     <t>SVN_PARAMETER</t>
   </si>
   <si>
-    <t>任务参数</t>
-  </si>
-  <si>
-    <t>作业参数</t>
-  </si>
-  <si>
     <t>fa fa-list</t>
   </si>
   <si>
@@ -2725,6 +2713,142 @@
   </si>
   <si>
     <t>删除成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme Group Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme Group Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Execution</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Execution</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划执行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution History</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution History</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行历史</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑任务参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑任务参数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Parameter Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Parameter Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme &amp; Layer Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme &amp; Layer Editing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-list</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-list-ul</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-wrench</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-object-group</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-sitemap</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-check-square-o</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3920,7 +4044,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>50</v>
@@ -4152,7 +4276,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>68</v>
@@ -4424,10 +4548,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="F3" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -4441,16 +4565,16 @@
         <v>242</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4461,13 +4585,13 @@
         <v>242</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4478,13 +4602,13 @@
         <v>242</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4495,22 +4619,22 @@
         <v>242</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>637</v>
-      </c>
       <c r="F14" s="54" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4521,7 +4645,7 @@
         <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>$E$8</f>
@@ -4532,10 +4656,10 @@
         <v>hdispatch_admin</v>
       </c>
       <c r="H15" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4546,7 +4670,7 @@
         <v>242</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>$E$8</f>
@@ -4557,10 +4681,10 @@
         <v>hdispatch_test</v>
       </c>
       <c r="H16" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I16" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4571,7 +4695,7 @@
         <v>242</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>$E$9</f>
@@ -4582,10 +4706,10 @@
         <v>hdispatch_admin</v>
       </c>
       <c r="H17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I17" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4596,7 +4720,7 @@
         <v>242</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>$E$9</f>
@@ -4607,10 +4731,10 @@
         <v>hdispatch_test</v>
       </c>
       <c r="H18" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I18" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5984,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5999,8 +6123,8 @@
     <col min="11" max="11" width="21.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="23.125" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="29.625" customWidth="1"/>
     <col min="19" max="19" width="9.375" customWidth="1"/>
   </cols>
@@ -6218,17 +6342,17 @@
       <c r="M10" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>324</v>
+      <c r="N10" t="s">
+        <v>778</v>
+      </c>
+      <c r="O10" t="s">
+        <v>779</v>
       </c>
       <c r="P10" t="s">
-        <v>325</v>
+        <v>780</v>
       </c>
       <c r="Q10" t="s">
-        <v>325</v>
+        <v>781</v>
       </c>
       <c r="S10" s="53"/>
       <c r="V10" s="53"/>
@@ -6241,10 +6365,10 @@
         <v>323</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>782</v>
       </c>
       <c r="I11" s="16" t="str">
         <f>RESOURCE!E13</f>
@@ -6264,16 +6388,16 @@
         <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O11" t="s">
-        <v>328</v>
+        <v>767</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>769</v>
       </c>
       <c r="Q11" t="s">
-        <v>269</v>
+        <v>768</v>
       </c>
       <c r="S11" s="53"/>
       <c r="V11" s="53"/>
@@ -6286,10 +6410,10 @@
         <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>783</v>
       </c>
       <c r="I12" s="16" t="str">
         <f>RESOURCE!E14</f>
@@ -6309,29 +6433,29 @@
         <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O12" t="s">
-        <v>330</v>
+        <v>770</v>
       </c>
       <c r="P12" t="s">
-        <v>270</v>
+        <v>766</v>
       </c>
       <c r="Q12" t="s">
-        <v>270</v>
+        <v>771</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22">
       <c r="E13" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" t="s">
@@ -6348,13 +6472,13 @@
         <v>276</v>
       </c>
       <c r="O13" t="s">
-        <v>276</v>
+        <v>756</v>
       </c>
       <c r="P13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q13" t="s">
-        <v>333</v>
+        <v>757</v>
       </c>
       <c r="S13" s="53"/>
       <c r="V13" s="53"/>
@@ -6367,10 +6491,10 @@
         <v>321</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>787</v>
       </c>
       <c r="I14" s="16" t="str">
         <f>RESOURCE!E16</f>
@@ -6390,32 +6514,32 @@
         <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O14" t="s">
-        <v>335</v>
+        <v>758</v>
       </c>
       <c r="P14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q14" t="s">
-        <v>335</v>
+        <v>759</v>
       </c>
       <c r="S14" s="53"/>
       <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22">
       <c r="E15" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" t="s">
-        <v>326</v>
+        <v>785</v>
       </c>
       <c r="I15" s="16" t="str">
         <f>RESOURCE!E20</f>
@@ -6435,16 +6559,16 @@
         <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O15" t="s">
-        <v>337</v>
+        <v>764</v>
       </c>
       <c r="P15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q15" t="s">
-        <v>338</v>
+        <v>765</v>
       </c>
       <c r="S15" s="53"/>
       <c r="V15" s="53"/>
@@ -6457,7 +6581,7 @@
         <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H16" t="s">
         <v>129</v>
@@ -6480,32 +6604,32 @@
         <v>62</v>
       </c>
       <c r="N16" t="s">
-        <v>340</v>
+        <v>772</v>
       </c>
       <c r="O16" t="s">
-        <v>340</v>
+        <v>774</v>
       </c>
       <c r="P16" t="s">
-        <v>341</v>
+        <v>773</v>
       </c>
       <c r="Q16" t="s">
-        <v>341</v>
+        <v>775</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="53"/>
     </row>
     <row r="17" spans="4:22">
       <c r="E17" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>784</v>
       </c>
       <c r="I17" s="16" t="str">
         <f>RESOURCE!E23</f>
@@ -6525,16 +6649,16 @@
         <v>62</v>
       </c>
       <c r="N17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O17" t="s">
-        <v>344</v>
+        <v>762</v>
       </c>
       <c r="P17" t="s">
         <v>282</v>
       </c>
       <c r="Q17" t="s">
-        <v>282</v>
+        <v>763</v>
       </c>
       <c r="S17" s="53"/>
       <c r="V17" s="53"/>
@@ -6547,10 +6671,10 @@
         <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>786</v>
       </c>
       <c r="I18" s="16" t="str">
         <f>RESOURCE!E15</f>
@@ -6570,16 +6694,16 @@
         <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O18" t="s">
-        <v>346</v>
+        <v>776</v>
       </c>
       <c r="P18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q18" t="s">
-        <v>346</v>
+        <v>777</v>
       </c>
       <c r="S18" s="53"/>
       <c r="V18" s="53"/>
@@ -6592,10 +6716,10 @@
         <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" t="s">
@@ -6609,32 +6733,32 @@
         <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O19" t="s">
-        <v>349</v>
+        <v>755</v>
       </c>
       <c r="P19" t="s">
-        <v>349</v>
+        <v>754</v>
       </c>
       <c r="Q19" t="s">
-        <v>349</v>
+        <v>755</v>
       </c>
       <c r="S19" s="53"/>
       <c r="V19" s="53"/>
     </row>
     <row r="20" spans="4:22">
       <c r="E20" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" t="s">
@@ -6648,32 +6772,32 @@
         <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O20" t="s">
-        <v>351</v>
+        <v>732</v>
       </c>
       <c r="P20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q20" t="s">
-        <v>351</v>
+        <v>732</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="53"/>
     </row>
     <row r="21" spans="4:22">
       <c r="E21" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I21" s="16" t="str">
         <f>RESOURCE!E24</f>
@@ -6696,13 +6820,13 @@
         <v>283</v>
       </c>
       <c r="O21" t="s">
-        <v>283</v>
+        <v>760</v>
       </c>
       <c r="P21" t="s">
         <v>283</v>
       </c>
       <c r="Q21" t="s">
-        <v>283</v>
+        <v>761</v>
       </c>
       <c r="S21" s="53"/>
       <c r="V21" s="53"/>
@@ -7357,8 +7481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B242" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261"/>
+    <sheetView topLeftCell="B242" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7461,13 +7585,13 @@
         <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7475,13 +7599,13 @@
         <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7489,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7503,13 +7627,13 @@
         <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7517,13 +7641,13 @@
         <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7531,13 +7655,13 @@
         <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7545,13 +7669,13 @@
         <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="5:8">
@@ -7559,13 +7683,13 @@
         <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -7573,13 +7697,13 @@
         <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -7587,13 +7711,13 @@
         <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="5:8">
@@ -7601,13 +7725,13 @@
         <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="5:8">
@@ -7615,13 +7739,13 @@
         <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="5:8">
@@ -7629,13 +7753,13 @@
         <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="5:8">
@@ -7643,13 +7767,13 @@
         <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="5:8">
@@ -7657,13 +7781,13 @@
         <v>80</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="5:8">
@@ -7671,13 +7795,13 @@
         <v>80</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="5:8">
@@ -7685,13 +7809,13 @@
         <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="5:8">
@@ -7699,13 +7823,13 @@
         <v>80</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="5:8">
@@ -7713,13 +7837,13 @@
         <v>80</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="5:8">
@@ -7727,13 +7851,13 @@
         <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="5:8">
@@ -7741,13 +7865,13 @@
         <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="5:8">
@@ -7755,13 +7879,13 @@
         <v>80</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="5:8">
@@ -7769,13 +7893,13 @@
         <v>80</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="5:8">
@@ -7783,13 +7907,13 @@
         <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="5:8">
@@ -7797,13 +7921,13 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="5:8">
@@ -7811,13 +7935,13 @@
         <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="36" spans="5:8">
@@ -7825,13 +7949,13 @@
         <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -7839,13 +7963,13 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="5:8">
@@ -7853,13 +7977,13 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -7867,13 +7991,13 @@
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="5:8">
@@ -7881,13 +8005,13 @@
         <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="5:8">
@@ -7895,13 +8019,13 @@
         <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="5:8">
@@ -7909,13 +8033,13 @@
         <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="5:8">
@@ -7923,13 +8047,13 @@
         <v>80</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -7937,13 +8061,13 @@
         <v>80</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -7951,13 +8075,13 @@
         <v>80</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="5:8">
@@ -7965,13 +8089,13 @@
         <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="5:8">
@@ -7979,13 +8103,13 @@
         <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="5:8">
@@ -7993,13 +8117,13 @@
         <v>80</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="5:8">
@@ -8007,13 +8131,13 @@
         <v>80</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="5:8">
@@ -8021,13 +8145,13 @@
         <v>80</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="5:8">
@@ -8035,13 +8159,13 @@
         <v>80</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="5:8">
@@ -8049,13 +8173,13 @@
         <v>80</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="5:8">
@@ -8063,13 +8187,13 @@
         <v>80</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="5:8">
@@ -8077,13 +8201,13 @@
         <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="5:8">
@@ -8091,13 +8215,13 @@
         <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="5:8">
@@ -8105,13 +8229,13 @@
         <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="5:8">
@@ -8119,13 +8243,13 @@
         <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="5:8">
@@ -8133,13 +8257,13 @@
         <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="5:8">
@@ -8147,13 +8271,13 @@
         <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="5:8">
@@ -8161,13 +8285,13 @@
         <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="5:8">
@@ -8175,13 +8299,13 @@
         <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="5:8">
@@ -8189,13 +8313,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="5:8">
@@ -8203,13 +8327,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="5:8">
@@ -8217,13 +8341,13 @@
         <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="5:8">
@@ -8231,13 +8355,13 @@
         <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="5:8">
@@ -8245,13 +8369,13 @@
         <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="5:8">
@@ -8259,13 +8383,13 @@
         <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="5:8">
@@ -8273,13 +8397,13 @@
         <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="5:8">
@@ -8287,13 +8411,13 @@
         <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="5:8">
@@ -8301,13 +8425,13 @@
         <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="5:8">
@@ -8315,13 +8439,13 @@
         <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="5:8">
@@ -8329,13 +8453,13 @@
         <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="5:8">
@@ -8343,13 +8467,13 @@
         <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="5:8">
@@ -8357,13 +8481,13 @@
         <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="5:8">
@@ -8371,13 +8495,13 @@
         <v>80</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="5:8">
@@ -8385,13 +8509,13 @@
         <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="5:8">
@@ -8399,13 +8523,13 @@
         <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78" spans="5:8">
@@ -8413,13 +8537,13 @@
         <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="5:8">
@@ -8427,13 +8551,13 @@
         <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="5:8">
@@ -8441,13 +8565,13 @@
         <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="5:8">
@@ -8455,13 +8579,13 @@
         <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="5:8">
@@ -8469,13 +8593,13 @@
         <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="5:8">
@@ -8483,13 +8607,13 @@
         <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="5:8">
@@ -8497,13 +8621,13 @@
         <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85" spans="5:8">
@@ -8511,13 +8635,13 @@
         <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="5:8">
@@ -8525,13 +8649,13 @@
         <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87" spans="5:8">
@@ -8539,13 +8663,13 @@
         <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="5:8">
@@ -8553,13 +8677,13 @@
         <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="89" spans="5:8">
@@ -8567,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="5:8">
@@ -8581,13 +8705,13 @@
         <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="5:8">
@@ -8595,13 +8719,13 @@
         <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="5:8">
@@ -8609,13 +8733,13 @@
         <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" spans="5:8">
@@ -8623,13 +8747,13 @@
         <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="5:8">
@@ -8637,13 +8761,13 @@
         <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="5:8">
@@ -8651,13 +8775,13 @@
         <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="5:8">
@@ -8665,13 +8789,13 @@
         <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="5:8">
@@ -8679,13 +8803,13 @@
         <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="5:8">
@@ -8693,13 +8817,13 @@
         <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="5:8">
@@ -8707,13 +8831,13 @@
         <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="5:8">
@@ -8721,13 +8845,13 @@
         <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="101" spans="5:8">
@@ -8735,13 +8859,13 @@
         <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="102" spans="5:8">
@@ -8749,13 +8873,13 @@
         <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="5:8">
@@ -8763,13 +8887,13 @@
         <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104" spans="5:8">
@@ -8777,13 +8901,13 @@
         <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="5:8">
@@ -8791,13 +8915,13 @@
         <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="5:8">
@@ -8805,13 +8929,13 @@
         <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="5:8">
@@ -8819,13 +8943,13 @@
         <v>80</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="5:8">
@@ -8833,13 +8957,13 @@
         <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="5:8">
@@ -8847,13 +8971,13 @@
         <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="5:8">
@@ -8861,13 +8985,13 @@
         <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="5:8">
@@ -8875,13 +8999,13 @@
         <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="5:8">
@@ -8889,13 +9013,13 @@
         <v>80</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="5:8">
@@ -8903,13 +9027,13 @@
         <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="5:8">
@@ -8917,13 +9041,13 @@
         <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="115" spans="5:8">
@@ -8931,13 +9055,13 @@
         <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="116" spans="5:8">
@@ -8945,13 +9069,13 @@
         <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="5:8">
@@ -8959,13 +9083,13 @@
         <v>80</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" spans="5:8">
@@ -8973,13 +9097,13 @@
         <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="119" spans="5:8">
@@ -8987,13 +9111,13 @@
         <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="120" spans="5:8">
@@ -9001,13 +9125,13 @@
         <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="5:8">
@@ -9015,13 +9139,13 @@
         <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="5:8">
@@ -9029,13 +9153,13 @@
         <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123" spans="5:8">
@@ -9043,13 +9167,13 @@
         <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="124" spans="5:8">
@@ -9057,13 +9181,13 @@
         <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="5:8">
@@ -9071,13 +9195,13 @@
         <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" spans="5:8">
@@ -9085,13 +9209,13 @@
         <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" spans="5:8">
@@ -9099,13 +9223,13 @@
         <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="128" spans="5:8">
@@ -9113,13 +9237,13 @@
         <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="5:8">
@@ -9127,13 +9251,13 @@
         <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="5:8">
@@ -9141,13 +9265,13 @@
         <v>80</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131" spans="5:8">
@@ -9155,13 +9279,13 @@
         <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="132" spans="5:8">
@@ -9169,13 +9293,13 @@
         <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="5:8">
@@ -9183,13 +9307,13 @@
         <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="134" spans="5:8">
@@ -9197,13 +9321,13 @@
         <v>80</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="135" spans="5:8">
@@ -9211,13 +9335,13 @@
         <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="5:8">
@@ -9225,13 +9349,13 @@
         <v>80</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="5:8">
@@ -9239,13 +9363,13 @@
         <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="138" spans="5:8">
@@ -9253,13 +9377,13 @@
         <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="139" spans="5:8">
@@ -9267,13 +9391,13 @@
         <v>80</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="140" spans="5:8">
@@ -9281,13 +9405,13 @@
         <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="5:8">
@@ -9295,13 +9419,13 @@
         <v>80</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="5:8">
@@ -9309,13 +9433,13 @@
         <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="143" spans="5:8">
@@ -9323,13 +9447,13 @@
         <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="144" spans="5:8">
@@ -9337,13 +9461,13 @@
         <v>80</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="5:8">
@@ -9351,13 +9475,13 @@
         <v>80</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="5:8">
@@ -9365,13 +9489,13 @@
         <v>80</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" spans="5:8">
@@ -9379,13 +9503,13 @@
         <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="5:8">
@@ -9393,13 +9517,13 @@
         <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="5:8">
@@ -9407,13 +9531,13 @@
         <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="5:8">
@@ -9421,13 +9545,13 @@
         <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="5:8">
@@ -9435,13 +9559,13 @@
         <v>80</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152" spans="5:8">
@@ -9449,13 +9573,13 @@
         <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="153" spans="5:8">
@@ -9463,13 +9587,13 @@
         <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="5:8">
@@ -9477,13 +9601,13 @@
         <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="155" spans="5:8">
@@ -9491,13 +9615,13 @@
         <v>80</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="156" spans="5:8">
@@ -9505,13 +9629,13 @@
         <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="5:8">
@@ -9519,13 +9643,13 @@
         <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="5:8">
@@ -9533,13 +9657,13 @@
         <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="5:8">
@@ -9547,13 +9671,13 @@
         <v>80</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="5:8">
@@ -9561,13 +9685,13 @@
         <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="5:8">
@@ -9575,13 +9699,13 @@
         <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="5:8">
@@ -9589,13 +9713,13 @@
         <v>80</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" spans="5:8">
@@ -9603,13 +9727,13 @@
         <v>80</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="5:8">
@@ -9617,13 +9741,13 @@
         <v>80</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="5:8">
@@ -9631,13 +9755,13 @@
         <v>80</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="5:8">
@@ -9645,13 +9769,13 @@
         <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="5:8">
@@ -9659,13 +9783,13 @@
         <v>80</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="5:8">
@@ -9673,13 +9797,13 @@
         <v>80</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="5:8">
@@ -9687,13 +9811,13 @@
         <v>80</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="5:8">
@@ -9701,13 +9825,13 @@
         <v>80</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="5:8">
@@ -9715,13 +9839,13 @@
         <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="5:8">
@@ -9729,13 +9853,13 @@
         <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="5:8">
@@ -9743,13 +9867,13 @@
         <v>80</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -9757,13 +9881,13 @@
         <v>80</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="5:8">
@@ -9771,13 +9895,13 @@
         <v>80</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176" spans="5:8">
@@ -9785,13 +9909,13 @@
         <v>80</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -9799,13 +9923,13 @@
         <v>80</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="178" spans="5:8">
@@ -9813,13 +9937,13 @@
         <v>80</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -9827,13 +9951,13 @@
         <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -9841,13 +9965,13 @@
         <v>80</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="181" spans="5:8">
@@ -9855,13 +9979,13 @@
         <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="182" spans="5:8">
@@ -9869,13 +9993,13 @@
         <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="5:8">
@@ -9883,13 +10007,13 @@
         <v>80</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="5:8">
@@ -9897,13 +10021,13 @@
         <v>80</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="185" spans="5:8">
@@ -9911,13 +10035,13 @@
         <v>80</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="186" spans="5:8">
@@ -9925,13 +10049,13 @@
         <v>80</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" spans="5:8">
@@ -9939,13 +10063,13 @@
         <v>80</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -9953,13 +10077,13 @@
         <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" spans="5:8">
@@ -9967,13 +10091,13 @@
         <v>80</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -9981,13 +10105,13 @@
         <v>80</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -9995,13 +10119,13 @@
         <v>80</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="5:8">
@@ -10009,13 +10133,13 @@
         <v>80</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -10023,13 +10147,13 @@
         <v>80</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -10037,13 +10161,13 @@
         <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="5:8">
@@ -10051,13 +10175,13 @@
         <v>80</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196" spans="5:8">
@@ -10065,13 +10189,13 @@
         <v>80</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="5:8">
@@ -10079,13 +10203,13 @@
         <v>80</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="198" spans="5:8">
@@ -10093,13 +10217,13 @@
         <v>80</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -10107,13 +10231,13 @@
         <v>80</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -10121,13 +10245,13 @@
         <v>80</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -10135,13 +10259,13 @@
         <v>80</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -10149,13 +10273,13 @@
         <v>80</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -10163,13 +10287,13 @@
         <v>80</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -10177,13 +10301,13 @@
         <v>80</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -10191,13 +10315,13 @@
         <v>80</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -10205,13 +10329,13 @@
         <v>80</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -10219,13 +10343,13 @@
         <v>80</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -10233,13 +10357,13 @@
         <v>80</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -10247,13 +10371,13 @@
         <v>80</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -10261,13 +10385,13 @@
         <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -10275,13 +10399,13 @@
         <v>80</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -10289,13 +10413,13 @@
         <v>80</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -10303,13 +10427,13 @@
         <v>80</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -10317,13 +10441,13 @@
         <v>80</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -10331,13 +10455,13 @@
         <v>80</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -10345,13 +10469,13 @@
         <v>80</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -10359,13 +10483,13 @@
         <v>80</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -10373,13 +10497,13 @@
         <v>80</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -10387,13 +10511,13 @@
         <v>80</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -10401,13 +10525,13 @@
         <v>80</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -10415,13 +10539,13 @@
         <v>80</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -10429,13 +10553,13 @@
         <v>80</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -10443,13 +10567,13 @@
         <v>80</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -10457,13 +10581,13 @@
         <v>80</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -10471,13 +10595,13 @@
         <v>80</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -10485,13 +10609,13 @@
         <v>80</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -10499,13 +10623,13 @@
         <v>80</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="5:8">
@@ -10513,13 +10637,13 @@
         <v>80</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="5:8">
@@ -10527,13 +10651,13 @@
         <v>80</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="5:8">
@@ -10541,13 +10665,13 @@
         <v>80</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="5:8">
@@ -10555,13 +10679,13 @@
         <v>80</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="5:8">
@@ -10569,13 +10693,13 @@
         <v>80</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="233" spans="5:8">
@@ -10583,13 +10707,13 @@
         <v>80</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="234" spans="5:8">
@@ -10597,13 +10721,13 @@
         <v>80</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -10611,13 +10735,13 @@
         <v>80</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="236" spans="5:8">
@@ -10625,13 +10749,13 @@
         <v>80</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="237" spans="5:8">
@@ -10639,13 +10763,13 @@
         <v>80</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" spans="5:8">
@@ -10653,13 +10777,13 @@
         <v>80</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" spans="5:8">
@@ -10667,13 +10791,13 @@
         <v>80</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="240" spans="5:8">
@@ -10681,13 +10805,13 @@
         <v>80</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G240" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="241" spans="5:8">
@@ -10695,13 +10819,13 @@
         <v>80</v>
       </c>
       <c r="F241" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G241" s="2" t="s">
-        <v>717</v>
-      </c>
       <c r="H241" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="242" spans="5:8">
@@ -10709,13 +10833,13 @@
         <v>80</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="243" spans="5:8">
@@ -10723,13 +10847,13 @@
         <v>80</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="244" spans="5:8">
@@ -10737,13 +10861,13 @@
         <v>80</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="245" spans="5:8">
@@ -10751,13 +10875,13 @@
         <v>80</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="246" spans="5:8">
@@ -10765,13 +10889,13 @@
         <v>80</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="5:8">
@@ -10779,13 +10903,13 @@
         <v>80</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="5:8">
@@ -10793,13 +10917,13 @@
         <v>80</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="249" spans="5:8">
@@ -10807,13 +10931,13 @@
         <v>80</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="250" spans="5:8">
@@ -10821,13 +10945,13 @@
         <v>80</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="251" spans="5:8">
@@ -10835,13 +10959,13 @@
         <v>80</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="5:8">
@@ -10849,13 +10973,13 @@
         <v>80</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="253" spans="5:8">
@@ -10863,13 +10987,13 @@
         <v>80</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H253" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="254" spans="5:8">
@@ -10877,13 +11001,13 @@
         <v>80</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="255" spans="5:8">
@@ -10891,13 +11015,13 @@
         <v>80</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="256" spans="5:8">
@@ -10905,13 +11029,13 @@
         <v>80</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="257" spans="5:8">
@@ -10919,13 +11043,13 @@
         <v>80</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thirdFloor\liuneng\version_2\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425" tabRatio="566" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425" tabRatio="566" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="908">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -2851,11 +2851,490 @@
     <t>fa fa-check-square-o</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Add dependent workflow </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加依赖流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.deptworklfowlist.addDept</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.deptworklfowlist.addDept</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.jobSource</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>源任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.theme.select</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please choose theme</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择任务组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.layer.select</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please choose layer</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择层次</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependent flow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.dependentflow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.add</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.mutexflow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex flow</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.addJob</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.generate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.returnlist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return list</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.schedule.cronSchedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cron schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cron 计划</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.execute</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.enableall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.enableall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable all</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用全部</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.disableall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.disableall</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable all</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用全部</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.enable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.disable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.enable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.loading</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.format</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Time</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.workflowSchedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流计划</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.preview</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流预览</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.notification</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notification</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.failureOption</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure Options</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败选项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.concurrencyOption</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concurrency Options</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发策略</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.minute</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minutes</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.hour</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.hour</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.day</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.month</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Months</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.week</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeks</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.cronexp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cron expression</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cron表达式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.exist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流已存在</t>
+  </si>
+  <si>
+    <t>workflow has existed</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.jobDuplicate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow has common job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流中包含重复的任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.generateSuccess</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow generate successfully</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流生成成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.notexist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>do not exist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.notexist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务流不存在</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow does not exist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -3992,6 +4471,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="26.125" customWidth="1"/>
@@ -4753,6 +5233,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="28.625" customWidth="1"/>
@@ -6108,12 +6589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
@@ -6917,6 +7399,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
@@ -7479,10 +7962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView topLeftCell="B242" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11052,6 +11535,1056 @@
         <v>753</v>
       </c>
     </row>
+    <row r="258" spans="5:8">
+      <c r="E258" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8">
+      <c r="E259" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="260" spans="5:8">
+      <c r="E260" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8">
+      <c r="E261" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8">
+      <c r="E262" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8">
+      <c r="E263" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8">
+      <c r="E264" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="265" spans="5:8">
+      <c r="E265" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="266" spans="5:8">
+      <c r="E266" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="267" spans="5:8">
+      <c r="E267" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="268" spans="5:8">
+      <c r="E268" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="269" spans="5:8">
+      <c r="E269" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8">
+      <c r="E270" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="271" spans="5:8">
+      <c r="E271" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="272" spans="5:8">
+      <c r="E272" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="273" spans="5:8">
+      <c r="E273" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="274" spans="5:8">
+      <c r="E274" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="5:8">
+      <c r="E275" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="276" spans="5:8">
+      <c r="E276" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="277" spans="5:8">
+      <c r="E277" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="278" spans="5:8">
+      <c r="E278" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="279" spans="5:8">
+      <c r="E279" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="280" spans="5:8">
+      <c r="E280" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="281" spans="5:8">
+      <c r="E281" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="284" spans="5:8">
+      <c r="E284" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="286" spans="5:8">
+      <c r="E286" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="287" spans="5:8">
+      <c r="E287" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="288" spans="5:8">
+      <c r="E288" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8">
+      <c r="E289" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="290" spans="5:8">
+      <c r="E290" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8">
+      <c r="E291" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8">
+      <c r="E292" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="293" spans="5:8">
+      <c r="E293" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8">
+      <c r="E294" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8">
+      <c r="E295" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8">
+      <c r="E296" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
+      <c r="E297" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="298" spans="5:8">
+      <c r="E298" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="299" spans="5:8">
+      <c r="E299" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="300" spans="5:8">
+      <c r="E300" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="301" spans="5:8">
+      <c r="E301" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="302" spans="5:8">
+      <c r="E302" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8">
+      <c r="E303" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8">
+      <c r="E304" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="305" spans="5:8">
+      <c r="E305" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="306" spans="5:8">
+      <c r="E306" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="307" spans="5:8">
+      <c r="E307" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="308" spans="5:8">
+      <c r="E308" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="309" spans="5:8">
+      <c r="E309" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="310" spans="5:8">
+      <c r="E310" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="311" spans="5:8">
+      <c r="E311" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="312" spans="5:8">
+      <c r="E312" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="313" spans="5:8">
+      <c r="E313" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="314" spans="5:8">
+      <c r="E314" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="315" spans="5:8">
+      <c r="E315" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="316" spans="5:8">
+      <c r="E316" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="317" spans="5:8">
+      <c r="E317" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="318" spans="5:8">
+      <c r="E318" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="319" spans="5:8">
+      <c r="E319" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="320" spans="5:8">
+      <c r="E320" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="321" spans="5:8">
+      <c r="E321" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="322" spans="5:8">
+      <c r="E322" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H322" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="323" spans="5:8">
+      <c r="E323" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="324" spans="5:8">
+      <c r="E324" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="325" spans="5:8">
+      <c r="E325" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="326" spans="5:8">
+      <c r="E326" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="327" spans="5:8">
+      <c r="E327" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="328" spans="5:8">
+      <c r="E328" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="329" spans="5:8">
+      <c r="E329" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="330" spans="5:8">
+      <c r="E330" s="12"/>
+    </row>
+    <row r="331" spans="5:8">
+      <c r="E331" s="12"/>
+    </row>
+    <row r="332" spans="5:8">
+      <c r="E332" s="12"/>
+    </row>
+    <row r="333" spans="5:8">
+      <c r="E333" s="12"/>
+    </row>
+    <row r="334" spans="5:8">
+      <c r="E334" s="12"/>
+    </row>
+    <row r="335" spans="5:8">
+      <c r="E335" s="12"/>
+    </row>
+    <row r="336" spans="5:8">
+      <c r="E336" s="12"/>
+    </row>
+    <row r="337" spans="5:5">
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="5:5">
+      <c r="E338" s="12"/>
+    </row>
+    <row r="339" spans="5:5">
+      <c r="E339" s="12"/>
+    </row>
+    <row r="340" spans="5:5">
+      <c r="E340" s="12"/>
+    </row>
+    <row r="341" spans="5:5">
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" spans="5:5">
+      <c r="E342" s="12"/>
+    </row>
+    <row r="343" spans="5:5">
+      <c r="E343" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11069,6 +12602,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
@@ -11378,6 +12912,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="19.375" customWidth="1"/>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="911">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -2868,14 +2868,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.deptworklfowlist.addDept</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.deptworklfowlist.addDept</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>hdispatch.workflow</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2904,10 +2896,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.jobSource</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Source job</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2984,10 +2972,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.addJob</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Add job</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3020,10 +3004,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.schedule.cronSchedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Cron schedule</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3044,10 +3024,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.enableall</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable all</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3124,10 +3100,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.workflowSchedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>任务流计划</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3156,10 +3128,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.failureOption</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Failure Options</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3168,10 +3136,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.concurrencyOption</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>en_GB</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3279,10 +3243,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.jobDuplicate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>en_GB</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3295,10 +3255,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>hdispatch.workflow.generateSuccess</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Workflow generate successfully</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3328,6 +3284,62 @@
   </si>
   <si>
     <t>Workflow does not exist</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.schedule.cron_schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.add_job</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.job_source</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.generate_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.generate_success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.job_duplicate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.concurrency_option</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.failure_option</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.failure_option</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.workflow_schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.workflow_schedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.deptworklfowlist.add_dept</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7964,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F342" sqref="F342"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11540,7 +11552,7 @@
         <v>80</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>793</v>
+        <v>909</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>788</v>
@@ -11554,7 +11566,7 @@
         <v>80</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>792</v>
+        <v>909</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>789</v>
@@ -11568,13 +11580,13 @@
         <v>80</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="261" spans="5:8">
@@ -11582,13 +11594,13 @@
         <v>80</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="262" spans="5:8">
@@ -11596,13 +11608,13 @@
         <v>80</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G262" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H262" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="H262" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="263" spans="5:8">
@@ -11610,13 +11622,13 @@
         <v>80</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="264" spans="5:8">
@@ -11624,13 +11636,13 @@
         <v>80</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="265" spans="5:8">
@@ -11638,13 +11650,13 @@
         <v>80</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="266" spans="5:8">
@@ -11652,13 +11664,13 @@
         <v>80</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="267" spans="5:8">
@@ -11666,13 +11678,13 @@
         <v>80</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="268" spans="5:8">
@@ -11680,13 +11692,13 @@
         <v>80</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="269" spans="5:8">
@@ -11694,13 +11706,13 @@
         <v>80</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="5:8">
@@ -11708,13 +11720,13 @@
         <v>80</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" spans="5:8">
@@ -11722,13 +11734,13 @@
         <v>80</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="272" spans="5:8">
@@ -11736,13 +11748,13 @@
         <v>80</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="273" spans="5:8">
@@ -11750,13 +11762,13 @@
         <v>80</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="274" spans="5:8">
@@ -11764,13 +11776,13 @@
         <v>80</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="275" spans="5:8">
@@ -11778,13 +11790,13 @@
         <v>80</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="276" spans="5:8">
@@ -11792,13 +11804,13 @@
         <v>80</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>821</v>
+        <v>899</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="277" spans="5:8">
@@ -11806,13 +11818,13 @@
         <v>80</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>821</v>
+        <v>899</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="278" spans="5:8">
@@ -11820,13 +11832,13 @@
         <v>80</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="279" spans="5:8">
@@ -11834,13 +11846,13 @@
         <v>80</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="280" spans="5:8">
@@ -11848,13 +11860,13 @@
         <v>80</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="281" spans="5:8">
@@ -11862,13 +11874,13 @@
         <v>80</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="282" spans="5:8">
@@ -11876,13 +11888,13 @@
         <v>80</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>830</v>
+        <v>898</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="283" spans="5:8">
@@ -11890,13 +11902,13 @@
         <v>80</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>830</v>
+        <v>898</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="284" spans="5:8">
@@ -11904,13 +11916,13 @@
         <v>80</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="5:8">
@@ -11918,13 +11930,13 @@
         <v>80</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>659</v>
+        <v>897</v>
       </c>
     </row>
     <row r="286" spans="5:8">
@@ -11932,13 +11944,13 @@
         <v>80</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="287" spans="5:8">
@@ -11946,13 +11958,13 @@
         <v>80</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="288" spans="5:8">
@@ -11960,13 +11972,13 @@
         <v>80</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="289" spans="5:8">
@@ -11974,13 +11986,13 @@
         <v>80</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="290" spans="5:8">
@@ -11988,13 +12000,13 @@
         <v>80</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="291" spans="5:8">
@@ -12002,13 +12014,13 @@
         <v>80</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="292" spans="5:8">
@@ -12016,13 +12028,13 @@
         <v>80</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="293" spans="5:8">
@@ -12030,13 +12042,13 @@
         <v>80</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>842</v>
+        <v>910</v>
       </c>
     </row>
     <row r="294" spans="5:8">
@@ -12044,13 +12056,13 @@
         <v>80</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="295" spans="5:8">
@@ -12058,13 +12070,13 @@
         <v>80</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="296" spans="5:8">
@@ -12072,13 +12084,13 @@
         <v>80</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="297" spans="5:8">
@@ -12086,13 +12098,13 @@
         <v>80</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="298" spans="5:8">
@@ -12100,13 +12112,13 @@
         <v>80</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>856</v>
+        <v>907</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="299" spans="5:8">
@@ -12114,13 +12126,13 @@
         <v>80</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>856</v>
+        <v>908</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="300" spans="5:8">
@@ -12128,13 +12140,13 @@
         <v>80</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="301" spans="5:8">
@@ -12142,13 +12154,13 @@
         <v>80</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="302" spans="5:8">
@@ -12156,13 +12168,13 @@
         <v>80</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="303" spans="5:8">
@@ -12170,13 +12182,13 @@
         <v>80</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="304" spans="5:8">
@@ -12184,13 +12196,13 @@
         <v>80</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="305" spans="5:8">
@@ -12198,13 +12210,13 @@
         <v>80</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="306" spans="5:8">
@@ -12212,13 +12224,13 @@
         <v>80</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="307" spans="5:8">
@@ -12226,13 +12238,13 @@
         <v>80</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="308" spans="5:8">
@@ -12240,13 +12252,13 @@
         <v>80</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="309" spans="5:8">
@@ -12254,13 +12266,13 @@
         <v>80</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="310" spans="5:8">
@@ -12268,13 +12280,13 @@
         <v>80</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="311" spans="5:8">
@@ -12282,13 +12294,13 @@
         <v>80</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="312" spans="5:8">
@@ -12296,13 +12308,13 @@
         <v>80</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="313" spans="5:8">
@@ -12310,13 +12322,13 @@
         <v>80</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="314" spans="5:8">
@@ -12324,13 +12336,13 @@
         <v>80</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="315" spans="5:8">
@@ -12338,13 +12350,13 @@
         <v>80</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="316" spans="5:8">
@@ -12352,13 +12364,13 @@
         <v>80</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="317" spans="5:8">
@@ -12366,13 +12378,13 @@
         <v>80</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="318" spans="5:8">
@@ -12380,13 +12392,13 @@
         <v>80</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="319" spans="5:8">
@@ -12394,13 +12406,13 @@
         <v>80</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="320" spans="5:8">
@@ -12408,13 +12420,13 @@
         <v>80</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="321" spans="5:8">
@@ -12422,13 +12434,13 @@
         <v>80</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="322" spans="5:8">
@@ -12436,13 +12448,13 @@
         <v>80</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="323" spans="5:8">
@@ -12450,13 +12462,13 @@
         <v>80</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="324" spans="5:8">
@@ -12464,13 +12476,13 @@
         <v>80</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="325" spans="5:8">
@@ -12478,13 +12490,13 @@
         <v>80</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="326" spans="5:8">
@@ -12492,13 +12504,13 @@
         <v>80</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="327" spans="5:8">
@@ -12506,13 +12518,13 @@
         <v>80</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>788</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
     </row>
     <row r="328" spans="5:8">
@@ -12520,13 +12532,13 @@
         <v>80</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>789</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
     </row>
     <row r="329" spans="5:8">
@@ -12534,13 +12546,13 @@
         <v>80</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
     </row>
     <row r="330" spans="5:8">

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="929">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3342,11 +3342,70 @@
     <t>禁用</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>hdispatch.deptworklfowlist.adddept</t>
+  </si>
+  <si>
+    <t>Add dependent workflow</t>
+  </si>
+  <si>
+    <t>增加依赖流</t>
+  </si>
+  <si>
+    <t>hdispatch.depflow.set_dep.error_duplicate</t>
+  </si>
+  <si>
+    <t>Duplicate Setting</t>
+  </si>
+  <si>
+    <t>重复设置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.depflow.success_resume</t>
+  </si>
+  <si>
+    <t>Resume Success</t>
+  </si>
+  <si>
+    <t>恢复成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.depflow.success_stop</t>
+  </si>
+  <si>
+    <t>Stop Success</t>
+  </si>
+  <si>
+    <t>停止成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.depflow.success_pause</t>
+  </si>
+  <si>
+    <t>Pause Success</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.themegroup.delete.tips</t>
+  </si>
+  <si>
+    <t>请先删除这些主题组下的主题和用户</t>
+  </si>
+  <si>
+    <t>Delete themes and users under these ThemeGroups first</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -7976,8 +8035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H293" sqref="H293"/>
+    <sheetView tabSelected="1" topLeftCell="E321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12557,44 +12616,152 @@
     </row>
     <row r="330" spans="5:8">
       <c r="E330" s="12"/>
+      <c r="F330" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="331" spans="5:8">
       <c r="E331" s="12"/>
+      <c r="F331" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="332" spans="5:8">
       <c r="E332" s="12"/>
+      <c r="F332" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="333" spans="5:8">
       <c r="E333" s="12"/>
+      <c r="F333" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="334" spans="5:8">
       <c r="E334" s="12"/>
+      <c r="F334" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="335" spans="5:8">
       <c r="E335" s="12"/>
+      <c r="F335" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="336" spans="5:8">
       <c r="E336" s="12"/>
-    </row>
-    <row r="337" spans="5:5">
+      <c r="F336" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="337" spans="5:8">
       <c r="E337" s="12"/>
-    </row>
-    <row r="338" spans="5:5">
+      <c r="F337" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="338" spans="5:8">
       <c r="E338" s="12"/>
-    </row>
-    <row r="339" spans="5:5">
+      <c r="F338" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="339" spans="5:8">
       <c r="E339" s="12"/>
-    </row>
-    <row r="340" spans="5:5">
+      <c r="F339" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="340" spans="5:8">
       <c r="E340" s="12"/>
-    </row>
-    <row r="341" spans="5:5">
+      <c r="F340" t="s">
+        <v>926</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="341" spans="5:8">
       <c r="E341" s="12"/>
-    </row>
-    <row r="342" spans="5:5">
+      <c r="F341" t="s">
+        <v>926</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H341" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="342" spans="5:8">
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="5:5">
+    <row r="343" spans="5:8">
       <c r="E343" s="12"/>
     </row>
   </sheetData>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="920">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3340,6 +3340,42 @@
   </si>
   <si>
     <t>禁用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重跑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.schedule.setsla</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置SLA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set SLA</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7976,8 +8012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H293" sqref="H293"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12556,22 +12592,88 @@
       </c>
     </row>
     <row r="330" spans="5:8">
-      <c r="E330" s="12"/>
+      <c r="E330" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="331" spans="5:8">
-      <c r="E331" s="12"/>
+      <c r="E331" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="332" spans="5:8">
-      <c r="E332" s="12"/>
+      <c r="E332" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="333" spans="5:8">
-      <c r="E333" s="12"/>
+      <c r="E333" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="334" spans="5:8">
-      <c r="E334" s="12"/>
+      <c r="E334" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="335" spans="5:8">
-      <c r="E335" s="12"/>
+      <c r="E335" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="336" spans="5:8">
       <c r="E336" s="12"/>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thirdFloor\liuneng\version_2\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="930">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3342,12 +3342,86 @@
     <t>禁用</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>hdispatch.themegroup.delete.tips</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先删除这些主题组下的主题和用户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Themes and Users under these Theme-Group</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.upload_file.no_file</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有上传任何附件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>No File Upload</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.error.job_parameter.error_during_import_from_excel</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入出错</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error during importing from excel </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3455,6 +3529,13 @@
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3581,7 +3662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3679,6 +3760,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3705,6 +3789,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4033,11 +4120,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -4046,21 +4133,21 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4171,11 +4258,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="49" t="s">
@@ -4213,19 +4300,19 @@
       <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="3:5" ht="47.25">
       <c r="C27" s="51" t="s">
@@ -7976,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H293" sqref="H293"/>
+    <sheetView tabSelected="1" topLeftCell="B320" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12556,22 +12643,88 @@
       </c>
     </row>
     <row r="330" spans="5:8">
-      <c r="E330" s="12"/>
+      <c r="E330" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="F330" s="55" t="s">
+        <v>911</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="331" spans="5:8">
-      <c r="E331" s="12"/>
+      <c r="E331" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="F331" s="55" t="s">
+        <v>911</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="332" spans="5:8">
-      <c r="E332" s="12"/>
+      <c r="E332" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="F332" s="55" t="s">
+        <v>918</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="333" spans="5:8">
-      <c r="E333" s="12"/>
+      <c r="E333" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="F333" s="55" t="s">
+        <v>918</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="334" spans="5:8">
-      <c r="E334" s="12"/>
+      <c r="E334" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F334" s="65" t="s">
+        <v>924</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="335" spans="5:8">
-      <c r="E335" s="12"/>
+      <c r="E335" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F335" s="65" t="s">
+        <v>924</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="336" spans="5:8">
       <c r="E336" s="12"/>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="945">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3414,6 +3414,66 @@
   </si>
   <si>
     <t xml:space="preserve">Error during importing from excel </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重跑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.schedule.setsla</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置SLA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.schedule.setsla</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set SLA</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3763,6 +3823,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3789,9 +3852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4120,11 +4180,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -4133,21 +4193,21 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4258,11 +4318,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="49" t="s">
@@ -4300,19 +4360,19 @@
       <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="3:5" ht="47.25">
       <c r="C27" s="51" t="s">
@@ -8063,8 +8123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B320" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F339" sqref="F339"/>
+    <sheetView tabSelected="1" topLeftCell="B325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12702,7 +12762,7 @@
       <c r="E334" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="F334" s="65" t="s">
+      <c r="F334" s="56" t="s">
         <v>924</v>
       </c>
       <c r="G334" s="2" t="s">
@@ -12716,7 +12776,7 @@
       <c r="E335" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="F335" s="65" t="s">
+      <c r="F335" s="56" t="s">
         <v>924</v>
       </c>
       <c r="G335" s="2" t="s">
@@ -12727,27 +12787,93 @@
       </c>
     </row>
     <row r="336" spans="5:8">
-      <c r="E336" s="12"/>
-    </row>
-    <row r="337" spans="5:5">
-      <c r="E337" s="12"/>
-    </row>
-    <row r="338" spans="5:5">
-      <c r="E338" s="12"/>
-    </row>
-    <row r="339" spans="5:5">
-      <c r="E339" s="12"/>
-    </row>
-    <row r="340" spans="5:5">
-      <c r="E340" s="12"/>
-    </row>
-    <row r="341" spans="5:5">
-      <c r="E341" s="12"/>
-    </row>
-    <row r="342" spans="5:5">
+      <c r="E336" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="337" spans="5:8">
+      <c r="E337" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="338" spans="5:8">
+      <c r="E338" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="339" spans="5:8">
+      <c r="E339" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="340" spans="5:8">
+      <c r="E340" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="341" spans="5:8">
+      <c r="E341" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="342" spans="5:8">
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="5:5">
+    <row r="343" spans="5:8">
       <c r="E343" s="12"/>
     </row>
   </sheetData>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="911">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3340,42 +3340,6 @@
   </si>
   <si>
     <t>禁用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.stop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.retry</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>重跑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.schedule.setsla</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置SLA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set SLA</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -8012,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12592,88 +12556,22 @@
       </c>
     </row>
     <row r="330" spans="5:8">
-      <c r="E330" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>912</v>
-      </c>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="5:8">
-      <c r="E331" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>913</v>
-      </c>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="5:8">
-      <c r="E332" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="H332" s="2" t="s">
-        <v>915</v>
-      </c>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="5:8">
-      <c r="E333" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>916</v>
-      </c>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="5:8">
-      <c r="E334" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>918</v>
-      </c>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="5:8">
-      <c r="E335" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>919</v>
-      </c>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="5:8">
       <c r="E336" s="12"/>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thirdFloor\liuneng\version_2\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="949">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3343,145 +3343,163 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先删除这些主题组下的主题和用户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Themes and Users under these Theme-Group</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有上传任何附件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>No File Upload</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.error.job_parameter.error_during_import_from_excel</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入出错</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error during importing from excel </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重跑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.schedule.setsla</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置SLA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.schedule.setsla</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set SLA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>hdispatch.themegroup.delete.tips</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.upload_file.no_file</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.workflow.generate_all</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>zh_CN</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>en_GB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先删除这些主题组下的主题和用户</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete Themes and Users under these Theme-Group</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.upload_file.no_file</t>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_GB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有上传任何附件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>No File Upload</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.error.job_parameter.error_during_import_from_excel</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入出错</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_GB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Error during importing from excel </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.stop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.stop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_GB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.retry</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>重跑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_GB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.schedule.setsla</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置SLA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdispatch.schedule.setsla</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set SLA</t>
+    <t>一键生成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate All</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3589,13 +3607,6 @@
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3722,7 +3733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3819,12 +3830,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4180,11 +4185,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -4193,21 +4198,21 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="48.95" customHeight="1">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4318,11 +4323,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="49" t="s">
@@ -4360,19 +4365,19 @@
       <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="3:5" ht="47.25">
       <c r="C27" s="51" t="s">
@@ -8124,7 +8129,7 @@
   <dimension ref="A1:H343"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F344" sqref="F344"/>
+      <selection activeCell="F345" sqref="F345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12704,86 +12709,86 @@
     </row>
     <row r="330" spans="5:8">
       <c r="E330" s="12" t="s">
-        <v>914</v>
-      </c>
-      <c r="F330" s="55" t="s">
+        <v>913</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="G330" s="2" t="s">
-        <v>912</v>
-      </c>
       <c r="H330" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="331" spans="5:8">
       <c r="E331" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="F331" s="55" t="s">
-        <v>911</v>
+        <v>914</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="332" spans="5:8">
       <c r="E332" s="12" t="s">
-        <v>919</v>
-      </c>
-      <c r="F332" s="55" t="s">
+        <v>917</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="G332" s="2" t="s">
+      <c r="H332" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="H332" s="2" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="333" spans="5:8">
       <c r="E333" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="F333" s="55" t="s">
-        <v>918</v>
-      </c>
-      <c r="G333" s="2" t="s">
+      <c r="H333" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="334" spans="5:8">
       <c r="E334" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="F334" s="56" t="s">
+      <c r="H334" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="335" spans="5:8">
       <c r="E335" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="F335" s="56" t="s">
-        <v>924</v>
+        <v>923</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>922</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="336" spans="5:8">
@@ -12791,13 +12796,13 @@
         <v>80</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>712</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="337" spans="5:8">
@@ -12805,13 +12810,13 @@
         <v>80</v>
       </c>
       <c r="F337" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="H337" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="338" spans="5:8">
@@ -12819,13 +12824,13 @@
         <v>80</v>
       </c>
       <c r="F338" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H338" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="339" spans="5:8">
@@ -12833,13 +12838,13 @@
         <v>80</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="340" spans="5:8">
@@ -12847,13 +12852,13 @@
         <v>80</v>
       </c>
       <c r="F340" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="H340" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="341" spans="5:8">
@@ -12861,20 +12866,42 @@
         <v>80</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>711</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="342" spans="5:8">
-      <c r="E342" s="12"/>
+      <c r="E342" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="343" spans="5:8">
-      <c r="E343" s="12"/>
+      <c r="E343" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>948</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
+++ b/core-db/src/main/java/hdispatch/core/db/data/2016-11-15-init-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thirdFloor\liuneng\version_2\HDispatch\core-db\src\main\java\hdispatch\core\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="956">
   <si>
     <t>注意这个文档不能 merge！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -3494,11 +3494,39 @@
     <t>Generate All</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>hdispatch.select</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdispatch.select</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -8126,10 +8154,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H343"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345"/>
+    <sheetView tabSelected="1" topLeftCell="B337" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12901,6 +12929,34 @@
       </c>
       <c r="H343" s="2" t="s">
         <v>948</v>
+      </c>
+    </row>
+    <row r="344" spans="5:8">
+      <c r="E344" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="345" spans="5:8">
+      <c r="E345" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
